--- a/賭けの仕様.xlsx
+++ b/賭けの仕様.xlsx
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
